--- a/2025/Все_2025.xlsx
+++ b/2025/Все_2025.xlsx
@@ -10,6 +10,8 @@
     <sheet name="Январь" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Февраль" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Апрель" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Май" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Июнь" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4654,4 +4656,3647 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AH23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Сотрудник</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Сумма часов</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Заработная плата</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ефимов Николай</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ефимова Татьяна</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Василенко Станислав</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Кравченко Александр</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>10</v>
+      </c>
+      <c r="W5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>126502.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Петров Артём</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12</v>
+      </c>
+      <c r="P6" t="n">
+        <v>12</v>
+      </c>
+      <c r="T6" t="n">
+        <v>12</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>177</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>95580</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Подлипаев Олег</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>13</v>
+      </c>
+      <c r="P7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T7" t="n">
+        <v>13</v>
+      </c>
+      <c r="U7" t="n">
+        <v>12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>105797.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Походеев Сергей</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>12</v>
+      </c>
+      <c r="P8" t="n">
+        <v>12</v>
+      </c>
+      <c r="T8" t="n">
+        <v>12</v>
+      </c>
+      <c r="U8" t="n">
+        <v>13</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>93677.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Смирнов Олег</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>12</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12</v>
+      </c>
+      <c r="T9" t="n">
+        <v>12</v>
+      </c>
+      <c r="U9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>88375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Викулин Владимир</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>12</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>12</v>
+      </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
+      <c r="S10" t="n">
+        <v>12</v>
+      </c>
+      <c r="V10" t="n">
+        <v>12</v>
+      </c>
+      <c r="W10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>92667.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Гусаков Василий</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>12</v>
+      </c>
+      <c r="W11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>65650</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Иванов Пётр</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>12</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>12</v>
+      </c>
+      <c r="R12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>12</v>
+      </c>
+      <c r="V12" t="n">
+        <v>12</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>96707.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Новиков Артём</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12</v>
+      </c>
+      <c r="R13" t="n">
+        <v>10</v>
+      </c>
+      <c r="S13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>12</v>
+      </c>
+      <c r="U13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ремизов Денис</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>12</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>193</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>97465</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Абатуров Юрий</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>12</v>
+      </c>
+      <c r="U15" t="n">
+        <v>12</v>
+      </c>
+      <c r="V15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>260</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>131300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Атаев Мурат</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>13</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14</v>
+      </c>
+      <c r="T16" t="n">
+        <v>14</v>
+      </c>
+      <c r="U16" t="n">
+        <v>13</v>
+      </c>
+      <c r="V16" t="n">
+        <v>13</v>
+      </c>
+      <c r="W16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>93210</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Атамуратов Шерзод</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13</v>
+      </c>
+      <c r="K17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>13</v>
+      </c>
+      <c r="S17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>13</v>
+      </c>
+      <c r="W17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>416</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>108160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ибрагимов Сонат</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>13</v>
+      </c>
+      <c r="M18" t="n">
+        <v>13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>13</v>
+      </c>
+      <c r="P18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>13</v>
+      </c>
+      <c r="W18" t="n">
+        <v>13</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>382</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>99320</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Рузметов Руслан</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>14</v>
+      </c>
+      <c r="V19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>14</v>
+      </c>
+      <c r="X19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>413.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>138522.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Азатов Сардор</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12</v>
+      </c>
+      <c r="L20" t="n">
+        <v>14</v>
+      </c>
+      <c r="M20" t="n">
+        <v>13</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12</v>
+      </c>
+      <c r="O20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>13</v>
+      </c>
+      <c r="R20" t="n">
+        <v>13</v>
+      </c>
+      <c r="S20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>11</v>
+      </c>
+      <c r="U20" t="n">
+        <v>12</v>
+      </c>
+      <c r="V20" t="n">
+        <v>13</v>
+      </c>
+      <c r="W20" t="n">
+        <v>13</v>
+      </c>
+      <c r="X20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>383</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>59365</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Байджанов Шухрат</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12</v>
+      </c>
+      <c r="H21" t="n">
+        <v>12</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>13</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>370</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>94350</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Дорохов Юрий</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>12</v>
+      </c>
+      <c r="U22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>315</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>102375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Норбоев Бобур</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>14</v>
+      </c>
+      <c r="M23" t="n">
+        <v>12</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12</v>
+      </c>
+      <c r="O23" t="n">
+        <v>12</v>
+      </c>
+      <c r="P23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>12</v>
+      </c>
+      <c r="R23" t="n">
+        <v>12</v>
+      </c>
+      <c r="S23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>12</v>
+      </c>
+      <c r="U23" t="n">
+        <v>12</v>
+      </c>
+      <c r="V23" t="n">
+        <v>12</v>
+      </c>
+      <c r="W23" t="n">
+        <v>12</v>
+      </c>
+      <c r="X23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>383</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>97665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Сотрудник</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Сумма часов</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Заработная плата</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ефимов Николай</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ефимова Татьяна</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Василенко Станислав</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>13</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>138</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>69690</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Кравченко Александр</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12</v>
+      </c>
+      <c r="R5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11</v>
+      </c>
+      <c r="V5" t="n">
+        <v>11</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>181</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>91405</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Петров Артём</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12</v>
+      </c>
+      <c r="V6" t="n">
+        <v>12</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>81270</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Подлипаев Олег</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>12</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>12</v>
+      </c>
+      <c r="V7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>198</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Походеев Сергей</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>13</v>
+      </c>
+      <c r="R8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>12</v>
+      </c>
+      <c r="V8" t="n">
+        <v>12</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>158</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>79790</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Смирнов Олег</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12</v>
+      </c>
+      <c r="U9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>179</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>90395</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Викулин Владимир</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12</v>
+      </c>
+      <c r="O10" t="n">
+        <v>12</v>
+      </c>
+      <c r="P10" t="n">
+        <v>12</v>
+      </c>
+      <c r="S10" t="n">
+        <v>12</v>
+      </c>
+      <c r="T10" t="n">
+        <v>12</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>136</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>68680</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Гусаков Василий</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>12</v>
+      </c>
+      <c r="P11" t="n">
+        <v>12</v>
+      </c>
+      <c r="S11" t="n">
+        <v>12</v>
+      </c>
+      <c r="T11" t="n">
+        <v>12</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>79537.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Дмитриев Роман</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>13</v>
+      </c>
+      <c r="U12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>44852.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Иванов Пётр</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>89</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Новиков Артём</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>13</v>
+      </c>
+      <c r="U14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>223</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>120420</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ремизов Денис</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12</v>
+      </c>
+      <c r="O15" t="n">
+        <v>12</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>12</v>
+      </c>
+      <c r="T15" t="n">
+        <v>12</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>142</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>71710</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Абатуров Юрий</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>219</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>110595</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Атаев Мурат</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>14</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>12</v>
+      </c>
+      <c r="V17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>13</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>91910</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Атамуратов Шерзод</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>14</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>14</v>
+      </c>
+      <c r="N18" t="n">
+        <v>14</v>
+      </c>
+      <c r="O18" t="n">
+        <v>13</v>
+      </c>
+      <c r="P18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>14</v>
+      </c>
+      <c r="S18" t="n">
+        <v>14</v>
+      </c>
+      <c r="T18" t="n">
+        <v>14</v>
+      </c>
+      <c r="U18" t="n">
+        <v>14</v>
+      </c>
+      <c r="V18" t="n">
+        <v>14</v>
+      </c>
+      <c r="W18" t="n">
+        <v>14</v>
+      </c>
+      <c r="X18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>399.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>103870</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ибрагимов Сонат</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>11</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>94</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>24440</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Рузметов Руслан</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14</v>
+      </c>
+      <c r="H20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>14</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14</v>
+      </c>
+      <c r="L20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>14</v>
+      </c>
+      <c r="O20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>14</v>
+      </c>
+      <c r="R20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>13</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>416</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>139360</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Азатов Сардор</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12</v>
+      </c>
+      <c r="H21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12</v>
+      </c>
+      <c r="J21" t="n">
+        <v>14</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>12</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12</v>
+      </c>
+      <c r="O21" t="n">
+        <v>11</v>
+      </c>
+      <c r="P21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>12</v>
+      </c>
+      <c r="S21" t="n">
+        <v>12</v>
+      </c>
+      <c r="T21" t="n">
+        <v>13</v>
+      </c>
+      <c r="U21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>13</v>
+      </c>
+      <c r="X21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>55722.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Байджанов Шухрат</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>13</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>12</v>
+      </c>
+      <c r="W22" t="n">
+        <v>11</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>83767.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Дорохов Юрий</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>12</v>
+      </c>
+      <c r="X23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>41437.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Кахоров Сардорбек</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>12</v>
+      </c>
+      <c r="V24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>170</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Норбоев Бобур</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12</v>
+      </c>
+      <c r="H25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12</v>
+      </c>
+      <c r="J25" t="n">
+        <v>14</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>13</v>
+      </c>
+      <c r="P25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>13</v>
+      </c>
+      <c r="R25" t="n">
+        <v>12</v>
+      </c>
+      <c r="S25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="AA25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>92182.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>